--- a/output/resultados_tasa_ocupacion.xlsx
+++ b/output/resultados_tasa_ocupacion.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="Rural" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,25 +391,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -436,18 +420,9 @@
         <v>803</v>
       </c>
       <c r="G2">
-        <v>0.035</v>
+        <v>51929.83825372982</v>
       </c>
       <c r="H2">
-        <v>0.037</v>
-      </c>
-      <c r="I2">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J2">
-        <v>51929.83825372982</v>
-      </c>
-      <c r="K2">
         <v>3219649.971731249</v>
       </c>
     </row>
@@ -471,18 +446,9 @@
         <v>823</v>
       </c>
       <c r="G3">
-        <v>0.035</v>
+        <v>58742.92502821844</v>
       </c>
       <c r="H3">
-        <v>0.037</v>
-      </c>
-      <c r="I3">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J3">
-        <v>58742.92502821844</v>
-      </c>
-      <c r="K3">
         <v>3113375.026495577</v>
       </c>
     </row>
@@ -506,18 +472,9 @@
         <v>842</v>
       </c>
       <c r="G4">
-        <v>0.035</v>
+        <v>65535.01180270704</v>
       </c>
       <c r="H4">
-        <v>0.037</v>
-      </c>
-      <c r="I4">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J4">
-        <v>65535.01180270704</v>
-      </c>
-      <c r="K4">
         <v>3080145.554727231</v>
       </c>
     </row>
@@ -541,18 +498,9 @@
         <v>861</v>
       </c>
       <c r="G5">
-        <v>0.035</v>
+        <v>72320.09857719565</v>
       </c>
       <c r="H5">
-        <v>0.037</v>
-      </c>
-      <c r="I5">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J5">
-        <v>72320.09857719565</v>
-      </c>
-      <c r="K5">
         <v>3037444.140242217</v>
       </c>
     </row>
@@ -576,18 +524,9 @@
         <v>880</v>
       </c>
       <c r="G6">
-        <v>0.035</v>
+        <v>79098.18535168427</v>
       </c>
       <c r="H6">
-        <v>0.037</v>
-      </c>
-      <c r="I6">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J6">
-        <v>79098.18535168427</v>
-      </c>
-      <c r="K6">
         <v>3005731.043364002</v>
       </c>
     </row>
@@ -611,18 +550,9 @@
         <v>900</v>
       </c>
       <c r="G7">
-        <v>0.035</v>
+        <v>85869.27212617287</v>
       </c>
       <c r="H7">
-        <v>0.037</v>
-      </c>
-      <c r="I7">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J7">
-        <v>85869.27212617287</v>
-      </c>
-      <c r="K7">
         <v>3005424.52441605</v>
       </c>
     </row>
@@ -646,18 +576,9 @@
         <v>919</v>
       </c>
       <c r="G8">
-        <v>0.035</v>
+        <v>92640.35890066148</v>
       </c>
       <c r="H8">
-        <v>0.037</v>
-      </c>
-      <c r="I8">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J8">
-        <v>92640.35890066148</v>
-      </c>
-      <c r="K8">
         <v>2964491.484821167</v>
       </c>
     </row>
@@ -681,18 +602,9 @@
         <v>938</v>
       </c>
       <c r="G9">
-        <v>0.035</v>
+        <v>99404.4456751501</v>
       </c>
       <c r="H9">
-        <v>0.037</v>
-      </c>
-      <c r="I9">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J9">
-        <v>99404.4456751501</v>
-      </c>
-      <c r="K9">
         <v>2982133.370254503</v>
       </c>
     </row>
@@ -716,18 +628,9 @@
         <v>957</v>
       </c>
       <c r="G10">
-        <v>0.035</v>
+        <v>106161.5324496387</v>
       </c>
       <c r="H10">
-        <v>0.037</v>
-      </c>
-      <c r="I10">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J10">
-        <v>106161.5324496387</v>
-      </c>
-      <c r="K10">
         <v>3078684.441039522</v>
       </c>
     </row>
@@ -751,18 +654,9 @@
         <v>976</v>
       </c>
       <c r="G11">
-        <v>0.035</v>
+        <v>112925.6192241273</v>
       </c>
       <c r="H11">
-        <v>0.037</v>
-      </c>
-      <c r="I11">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J11">
-        <v>112925.6192241273</v>
-      </c>
-      <c r="K11">
         <v>3048991.719051437</v>
       </c>
     </row>
@@ -786,18 +680,9 @@
         <v>996</v>
       </c>
       <c r="G12">
-        <v>0.035</v>
+        <v>119682.7059986159</v>
       </c>
       <c r="H12">
-        <v>0.037</v>
-      </c>
-      <c r="I12">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="J12">
-        <v>119682.7059986159</v>
-      </c>
-      <c r="K12">
         <v>3111750.355964014</v>
       </c>
     </row>
@@ -808,7 +693,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -847,25 +732,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cve</t>
+          <t>Costos_UPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Costos_Total</t>
         </is>
@@ -891,18 +761,9 @@
         <v>777</v>
       </c>
       <c r="G2">
-        <v>0.038</v>
+        <v>77048.08671086701</v>
       </c>
       <c r="H2">
-        <v>0.036</v>
-      </c>
-      <c r="I2">
-        <v>0.074</v>
-      </c>
-      <c r="J2">
-        <v>77048.08671086701</v>
-      </c>
-      <c r="K2">
         <v>5008125.636206355</v>
       </c>
     </row>
@@ -926,18 +787,9 @@
         <v>788</v>
       </c>
       <c r="G3">
-        <v>0.038</v>
+        <v>84384.9924969518</v>
       </c>
       <c r="H3">
-        <v>0.036</v>
-      </c>
-      <c r="I3">
-        <v>0.074</v>
-      </c>
-      <c r="J3">
-        <v>84384.9924969518</v>
-      </c>
-      <c r="K3">
         <v>4641174.587332349</v>
       </c>
     </row>
@@ -961,18 +813,9 @@
         <v>799</v>
       </c>
       <c r="G4">
-        <v>0.038</v>
+        <v>91629.89828303661</v>
       </c>
       <c r="H4">
-        <v>0.036</v>
-      </c>
-      <c r="I4">
-        <v>0.074</v>
-      </c>
-      <c r="J4">
-        <v>91629.89828303661</v>
-      </c>
-      <c r="K4">
         <v>4306605.219302721</v>
       </c>
     </row>
@@ -996,18 +839,9 @@
         <v>811</v>
       </c>
       <c r="G5">
-        <v>0.038</v>
+        <v>98736.80406912143</v>
       </c>
       <c r="H5">
-        <v>0.036</v>
-      </c>
-      <c r="I5">
-        <v>0.074</v>
-      </c>
-      <c r="J5">
-        <v>98736.80406912143</v>
-      </c>
-      <c r="K5">
         <v>4146945.7709031</v>
       </c>
     </row>
@@ -1031,18 +865,9 @@
         <v>822</v>
       </c>
       <c r="G6">
-        <v>0.038</v>
+        <v>105797.7098552062</v>
       </c>
       <c r="H6">
-        <v>0.036</v>
-      </c>
-      <c r="I6">
-        <v>0.074</v>
-      </c>
-      <c r="J6">
-        <v>105797.7098552062</v>
-      </c>
-      <c r="K6">
         <v>4020312.974497837</v>
       </c>
     </row>
@@ -1066,18 +891,9 @@
         <v>833</v>
       </c>
       <c r="G7">
-        <v>0.038</v>
+        <v>112812.615641291</v>
       </c>
       <c r="H7">
-        <v>0.036</v>
-      </c>
-      <c r="I7">
-        <v>0.074</v>
-      </c>
-      <c r="J7">
-        <v>112812.615641291</v>
-      </c>
-      <c r="K7">
         <v>3948441.547445185</v>
       </c>
     </row>
@@ -1101,18 +917,9 @@
         <v>844</v>
       </c>
       <c r="G8">
-        <v>0.038</v>
+        <v>119827.5214273758</v>
       </c>
       <c r="H8">
-        <v>0.036</v>
-      </c>
-      <c r="I8">
-        <v>0.074</v>
-      </c>
-      <c r="J8">
-        <v>119827.5214273758</v>
-      </c>
-      <c r="K8">
         <v>3834480.685676027</v>
       </c>
     </row>
@@ -1136,18 +943,9 @@
         <v>855</v>
       </c>
       <c r="G9">
-        <v>0.038</v>
+        <v>126796.4272134606</v>
       </c>
       <c r="H9">
-        <v>0.036</v>
-      </c>
-      <c r="I9">
-        <v>0.074</v>
-      </c>
-      <c r="J9">
-        <v>126796.4272134606</v>
-      </c>
-      <c r="K9">
         <v>3803892.816403819</v>
       </c>
     </row>
@@ -1171,18 +969,9 @@
         <v>866</v>
       </c>
       <c r="G10">
-        <v>0.038</v>
+        <v>133765.3329995454</v>
       </c>
       <c r="H10">
-        <v>0.036</v>
-      </c>
-      <c r="I10">
-        <v>0.074</v>
-      </c>
-      <c r="J10">
-        <v>133765.3329995454</v>
-      </c>
-      <c r="K10">
         <v>3745429.323987273</v>
       </c>
     </row>
@@ -1206,18 +995,9 @@
         <v>877</v>
       </c>
       <c r="G11">
-        <v>0.038</v>
+        <v>140734.2387856302</v>
       </c>
       <c r="H11">
-        <v>0.036</v>
-      </c>
-      <c r="I11">
-        <v>0.074</v>
-      </c>
-      <c r="J11">
-        <v>140734.2387856302</v>
-      </c>
-      <c r="K11">
         <v>3659090.208426386</v>
       </c>
     </row>
@@ -1241,474 +1021,10 @@
         <v>888</v>
       </c>
       <c r="G12">
-        <v>0.038</v>
+        <v>147657.1445717151</v>
       </c>
       <c r="H12">
-        <v>0.036</v>
-      </c>
-      <c r="I12">
-        <v>0.074</v>
-      </c>
-      <c r="J12">
-        <v>147657.1445717151</v>
-      </c>
-      <c r="K12">
         <v>3691428.614292877</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsPerPSU</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsPerPSU</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DEFF</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PSUinSample</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HouseholdsInSample</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PersonsInSample</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>M.E.R</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_UPM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Costos_Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12.44094488188976</v>
-      </c>
-      <c r="C2">
-        <v>1.094592425992481</v>
-      </c>
-      <c r="D2">
-        <v>127</v>
-      </c>
-      <c r="E2">
-        <v>635</v>
-      </c>
-      <c r="F2">
-        <v>1580</v>
-      </c>
-      <c r="G2">
-        <v>0.025</v>
-      </c>
-      <c r="H2">
-        <v>0.026</v>
-      </c>
-      <c r="I2">
-        <v>0.049</v>
-      </c>
-      <c r="J2">
-        <v>64785.637572687</v>
-      </c>
-      <c r="K2">
-        <v>8227775.971731249</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>14.91666666666667</v>
-      </c>
-      <c r="C3">
-        <v>1.119392237879151</v>
-      </c>
-      <c r="D3">
-        <v>108</v>
-      </c>
-      <c r="E3">
-        <v>648</v>
-      </c>
-      <c r="F3">
-        <v>1611</v>
-      </c>
-      <c r="G3">
-        <v>0.025</v>
-      </c>
-      <c r="H3">
-        <v>0.026</v>
-      </c>
-      <c r="I3">
-        <v>0.049</v>
-      </c>
-      <c r="J3">
-        <v>71801.38913421832</v>
-      </c>
-      <c r="K3">
-        <v>7754550.026495578</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>17.45744680851064</v>
-      </c>
-      <c r="C4">
-        <v>1.138857450250064</v>
-      </c>
-      <c r="D4">
-        <v>94</v>
-      </c>
-      <c r="E4">
-        <v>659</v>
-      </c>
-      <c r="F4">
-        <v>1641</v>
-      </c>
-      <c r="G4">
-        <v>0.025</v>
-      </c>
-      <c r="H4">
-        <v>0.026</v>
-      </c>
-      <c r="I4">
-        <v>0.049</v>
-      </c>
-      <c r="J4">
-        <v>78582.45270986416</v>
-      </c>
-      <c r="K4">
-        <v>7386750.554727231</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>19.90476190476191</v>
-      </c>
-      <c r="C5">
-        <v>1.158881658642544</v>
-      </c>
-      <c r="D5">
-        <v>84</v>
-      </c>
-      <c r="E5">
-        <v>672</v>
-      </c>
-      <c r="F5">
-        <v>1672</v>
-      </c>
-      <c r="G5">
-        <v>0.025</v>
-      </c>
-      <c r="H5">
-        <v>0.026</v>
-      </c>
-      <c r="I5">
-        <v>0.049</v>
-      </c>
-      <c r="J5">
-        <v>85528.45405050258</v>
-      </c>
-      <c r="K5">
-        <v>7184390.140242217</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>22.39473684210526</v>
-      </c>
-      <c r="C6">
-        <v>1.178207385919294</v>
-      </c>
-      <c r="D6">
-        <v>76</v>
-      </c>
-      <c r="E6">
-        <v>684</v>
-      </c>
-      <c r="F6">
-        <v>1702</v>
-      </c>
-      <c r="G6">
-        <v>0.025</v>
-      </c>
-      <c r="H6">
-        <v>0.026</v>
-      </c>
-      <c r="I6">
-        <v>0.049</v>
-      </c>
-      <c r="J6">
-        <v>92447.94793900003</v>
-      </c>
-      <c r="K6">
-        <v>7026044.043364002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>24.75714285714286</v>
-      </c>
-      <c r="C7">
-        <v>1.202848163787767</v>
-      </c>
-      <c r="D7">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>697</v>
-      </c>
-      <c r="F7">
-        <v>1733</v>
-      </c>
-      <c r="G7">
-        <v>0.025</v>
-      </c>
-      <c r="H7">
-        <v>0.026</v>
-      </c>
-      <c r="I7">
-        <v>0.049</v>
-      </c>
-      <c r="J7">
-        <v>99340.95034880072</v>
-      </c>
-      <c r="K7">
-        <v>6953866.52441605</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>27.546875</v>
-      </c>
-      <c r="C8">
-        <v>1.221974455848393</v>
-      </c>
-      <c r="D8">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>708</v>
-      </c>
-      <c r="F8">
-        <v>1763</v>
-      </c>
-      <c r="G8">
-        <v>0.025</v>
-      </c>
-      <c r="H8">
-        <v>0.026</v>
-      </c>
-      <c r="I8">
-        <v>0.049</v>
-      </c>
-      <c r="J8">
-        <v>106233.9450753307</v>
-      </c>
-      <c r="K8">
-        <v>6798972.484821167</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>29.88333333333333</v>
-      </c>
-      <c r="C9">
-        <v>1.242029896887539</v>
-      </c>
-      <c r="D9">
-        <v>60</v>
-      </c>
-      <c r="E9">
-        <v>721</v>
-      </c>
-      <c r="F9">
-        <v>1793</v>
-      </c>
-      <c r="G9">
-        <v>0.025</v>
-      </c>
-      <c r="H9">
-        <v>0.026</v>
-      </c>
-      <c r="I9">
-        <v>0.049</v>
-      </c>
-      <c r="J9">
-        <v>113100.4395042417</v>
-      </c>
-      <c r="K9">
-        <v>6786026.370254504</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>31.98245614035088</v>
-      </c>
-      <c r="C10">
-        <v>1.261041616107609</v>
-      </c>
-      <c r="D10">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>732</v>
-      </c>
-      <c r="F10">
-        <v>1823</v>
-      </c>
-      <c r="G10">
-        <v>0.025</v>
-      </c>
-      <c r="H10">
-        <v>0.026</v>
-      </c>
-      <c r="I10">
-        <v>0.049</v>
-      </c>
-      <c r="J10">
-        <v>119721.2884392899</v>
-      </c>
-      <c r="K10">
-        <v>6824113.441039522</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>34.9622641509434</v>
-      </c>
-      <c r="C11">
-        <v>1.285559402930986</v>
-      </c>
-      <c r="D11">
-        <v>53</v>
-      </c>
-      <c r="E11">
-        <v>745</v>
-      </c>
-      <c r="F11">
-        <v>1853</v>
-      </c>
-      <c r="G11">
-        <v>0.025</v>
-      </c>
-      <c r="H11">
-        <v>0.026</v>
-      </c>
-      <c r="I11">
-        <v>0.049</v>
-      </c>
-      <c r="J11">
-        <v>126567.5796047441</v>
-      </c>
-      <c r="K11">
-        <v>6708081.719051437</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>36.94117647058823</v>
-      </c>
-      <c r="C12">
-        <v>1.300016576042955</v>
-      </c>
-      <c r="D12">
-        <v>51</v>
-      </c>
-      <c r="E12">
-        <v>756</v>
-      </c>
-      <c r="F12">
-        <v>1884</v>
-      </c>
-      <c r="G12">
-        <v>0.025</v>
-      </c>
-      <c r="H12">
-        <v>0.026</v>
-      </c>
-      <c r="I12">
-        <v>0.049</v>
-      </c>
-      <c r="J12">
-        <v>133395.6736463532</v>
-      </c>
-      <c r="K12">
-        <v>6803179.355964014</v>
       </c>
     </row>
   </sheetData>
